--- a/data/mobile.xlsx
+++ b/data/mobile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban11/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4229F59E-6FC3-7940-B71A-C34182ED2EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564DD662-B000-A143-B8D4-13238C6C4DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="-25320" windowWidth="29180" windowHeight="16820" xr2:uid="{CA7D6778-5998-D64D-8074-2A3983F7519C}"/>
+    <workbookView xWindow="10800" yWindow="-23640" windowWidth="29180" windowHeight="16820" xr2:uid="{CA7D6778-5998-D64D-8074-2A3983F7519C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>no</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -58,13 +58,77 @@
   <si>
     <t>tab</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyTuner Radio</t>
+  </si>
+  <si>
+    <t>KTVla 點歌快手</t>
+  </si>
+  <si>
+    <t>Shazam 音樂神搜</t>
+  </si>
+  <si>
+    <t>手機軟件</t>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apps.apple.com/tw/app/mytuner-radio%E5%8F%B0%E7%81%A3-%E9%9F%B3%E6%A8%82-%E6%96%B0%E8%81%9E%E5%BB%A3%E6%92%AD%E9%9B%BB%E5%8F%B0/id520502858</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/tw/app/ktvla-%E9%BB%9E%E6%AD%8C%E5%BF%AB%E6%89%8B/id891989824</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/tw/app/shazam-%E9%9F%B3%E6%A8%82%E7%A5%9E%E6%90%9C/id284993459</t>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣 音樂，新聞廣播電台</t>
+  </si>
+  <si>
+    <t>查詢各大KTV歌曲曲號</t>
+  </si>
+  <si>
+    <t>能在數秒內迅速辨識任何歌曲。你可在此盡情探索、搜尋藝人、歌詞、影片與歌單，而且完全免費。截至目前為止，</t>
+  </si>
+  <si>
+    <t>mobile-101.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile-102.png</t>
+  </si>
+  <si>
+    <t>mobile-103.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,6 +148,13 @@
       <sz val="9"/>
       <name val="Wawati TC"/>
       <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="BiauKai"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -109,12 +180,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -429,11 +503,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991D6833-3C43-A045-AD0E-AAC76CF66741}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD51"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -444,10 +518,11 @@
     <col min="4" max="4" width="85.33203125" style="2" customWidth="1"/>
     <col min="5" max="6" width="19.83203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.5" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="2"/>
+    <col min="8" max="8" width="80.1640625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,6 +543,87 @@
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
